--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Ryk</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Ryk</t>
-  </si>
-  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H2">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I2">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.367777666666666</v>
+        <v>12.13731566666667</v>
       </c>
       <c r="N2">
-        <v>19.103333</v>
+        <v>36.411947</v>
       </c>
       <c r="O2">
-        <v>0.1035015452901983</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="P2">
-        <v>0.1035015452901983</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="Q2">
-        <v>0.5966671351443334</v>
+        <v>0.4746256833731111</v>
       </c>
       <c r="R2">
-        <v>5.370004216299001</v>
+        <v>4.271631150358</v>
       </c>
       <c r="S2">
-        <v>0.07302548557343341</v>
+        <v>0.2052045499593414</v>
       </c>
       <c r="T2">
-        <v>0.0730254855734334</v>
+        <v>0.2052045499593414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H3">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I3">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +626,22 @@
         <v>107.856542</v>
       </c>
       <c r="O3">
-        <v>0.584364977915486</v>
+        <v>0.6078404201038963</v>
       </c>
       <c r="P3">
-        <v>0.584364977915486</v>
+        <v>0.6078404201038962</v>
       </c>
       <c r="Q3">
-        <v>3.368755280647334</v>
+        <v>1.405898040909778</v>
       </c>
       <c r="R3">
-        <v>30.318797525826</v>
+        <v>12.653082368188</v>
       </c>
       <c r="S3">
-        <v>0.4122985424491849</v>
+        <v>0.6078404201038963</v>
       </c>
       <c r="T3">
-        <v>0.4122985424491848</v>
+        <v>0.6078404201038962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -667,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H4">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I4">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.107036</v>
+        <v>0.101426</v>
       </c>
       <c r="N4">
-        <v>0.3211079999999999</v>
+        <v>0.304278</v>
       </c>
       <c r="O4">
-        <v>0.001739757884398759</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="P4">
-        <v>0.001739757884398759</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="Q4">
-        <v>0.010029380236</v>
+        <v>0.003966229921333333</v>
       </c>
       <c r="R4">
-        <v>0.090264422124</v>
+        <v>0.035696069292</v>
       </c>
       <c r="S4">
-        <v>0.001227485676008163</v>
+        <v>0.001714800640914052</v>
       </c>
       <c r="T4">
-        <v>0.001227485676008163</v>
+        <v>0.001714800640914052</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -729,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H5">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I5">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.505362</v>
+        <v>10.82580366666667</v>
       </c>
       <c r="N5">
-        <v>55.516086</v>
+        <v>32.477411</v>
       </c>
       <c r="O5">
-        <v>0.3007852446200642</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="P5">
-        <v>0.3007852446200642</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="Q5">
-        <v>1.733970924762001</v>
+        <v>0.4233394437837779</v>
       </c>
       <c r="R5">
-        <v>15.605738322858</v>
+        <v>3.810054994054</v>
       </c>
       <c r="S5">
-        <v>0.212218943013059</v>
+        <v>0.1830309296039447</v>
       </c>
       <c r="T5">
-        <v>0.212218943013059</v>
+        <v>0.1830309296039447</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,480 +788,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H6">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I6">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.03953766666666667</v>
+        <v>0.1306743333333333</v>
       </c>
       <c r="N6">
-        <v>0.118613</v>
+        <v>0.392023</v>
       </c>
       <c r="O6">
-        <v>0.0006426432911736551</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="P6">
-        <v>0.0006426432911736551</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="Q6">
-        <v>0.003704718904333335</v>
+        <v>0.005109976246888889</v>
       </c>
       <c r="R6">
-        <v>0.03334247013900001</v>
+        <v>0.045989786222</v>
       </c>
       <c r="S6">
-        <v>0.0004534167896419781</v>
+        <v>0.002209299691903619</v>
       </c>
       <c r="T6">
-        <v>0.000453416789641978</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.09370100000000002</v>
-      </c>
-      <c r="H7">
-        <v>0.281103</v>
-      </c>
-      <c r="I7">
-        <v>0.7055497129891547</v>
-      </c>
-      <c r="J7">
-        <v>0.7055497129891546</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.5516093333333333</v>
-      </c>
-      <c r="N7">
-        <v>1.654828</v>
-      </c>
-      <c r="O7">
-        <v>0.008965830998679042</v>
-      </c>
-      <c r="P7">
-        <v>0.008965830998679042</v>
-      </c>
-      <c r="Q7">
-        <v>0.05168634614266667</v>
-      </c>
-      <c r="R7">
-        <v>0.4651771152840001</v>
-      </c>
-      <c r="S7">
-        <v>0.006325839487827264</v>
-      </c>
-      <c r="T7">
-        <v>0.006325839487827263</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.117314</v>
-      </c>
-      <c r="I8">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J8">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>6.367777666666666</v>
-      </c>
-      <c r="N8">
-        <v>19.103333</v>
-      </c>
-      <c r="O8">
-        <v>0.1035015452901983</v>
-      </c>
-      <c r="P8">
-        <v>0.1035015452901983</v>
-      </c>
-      <c r="Q8">
-        <v>0.2490098230624444</v>
-      </c>
-      <c r="R8">
-        <v>2.241088407562</v>
-      </c>
-      <c r="S8">
-        <v>0.03047605971676491</v>
-      </c>
-      <c r="T8">
-        <v>0.03047605971676491</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.117314</v>
-      </c>
-      <c r="I9">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J9">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>35.95218066666666</v>
-      </c>
-      <c r="N9">
-        <v>107.856542</v>
-      </c>
-      <c r="O9">
-        <v>0.584364977915486</v>
-      </c>
-      <c r="P9">
-        <v>0.584364977915486</v>
-      </c>
-      <c r="Q9">
-        <v>1.405898040909778</v>
-      </c>
-      <c r="R9">
-        <v>12.653082368188</v>
-      </c>
-      <c r="S9">
-        <v>0.1720664354663012</v>
-      </c>
-      <c r="T9">
-        <v>0.1720664354663012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.117314</v>
-      </c>
-      <c r="I10">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J10">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.107036</v>
-      </c>
-      <c r="N10">
-        <v>0.3211079999999999</v>
-      </c>
-      <c r="O10">
-        <v>0.001739757884398759</v>
-      </c>
-      <c r="P10">
-        <v>0.001739757884398759</v>
-      </c>
-      <c r="Q10">
-        <v>0.004185607101333332</v>
-      </c>
-      <c r="R10">
-        <v>0.037670463912</v>
-      </c>
-      <c r="S10">
-        <v>0.0005122722083905957</v>
-      </c>
-      <c r="T10">
-        <v>0.0005122722083905957</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.117314</v>
-      </c>
-      <c r="I11">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J11">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>18.505362</v>
-      </c>
-      <c r="N11">
-        <v>55.516086</v>
-      </c>
-      <c r="O11">
-        <v>0.3007852446200642</v>
-      </c>
-      <c r="P11">
-        <v>0.3007852446200642</v>
-      </c>
-      <c r="Q11">
-        <v>0.7236460125560001</v>
-      </c>
-      <c r="R11">
-        <v>6.512814113004001</v>
-      </c>
-      <c r="S11">
-        <v>0.08856630160700525</v>
-      </c>
-      <c r="T11">
-        <v>0.08856630160700525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.117314</v>
-      </c>
-      <c r="I12">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J12">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.03953766666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.118613</v>
-      </c>
-      <c r="O12">
-        <v>0.0006426432911736551</v>
-      </c>
-      <c r="P12">
-        <v>0.0006426432911736551</v>
-      </c>
-      <c r="Q12">
-        <v>0.001546107275777778</v>
-      </c>
-      <c r="R12">
-        <v>0.013914965482</v>
-      </c>
-      <c r="S12">
-        <v>0.000189226501531677</v>
-      </c>
-      <c r="T12">
-        <v>0.000189226501531677</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.117314</v>
-      </c>
-      <c r="I13">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J13">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.5516093333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.654828</v>
-      </c>
-      <c r="O13">
-        <v>0.008965830998679042</v>
-      </c>
-      <c r="P13">
-        <v>0.008965830998679042</v>
-      </c>
-      <c r="Q13">
-        <v>0.02157049911022222</v>
-      </c>
-      <c r="R13">
-        <v>0.194134491992</v>
-      </c>
-      <c r="S13">
-        <v>0.002639991510851778</v>
-      </c>
-      <c r="T13">
-        <v>0.002639991510851778</v>
+        <v>0.002209299691903619</v>
       </c>
     </row>
   </sheetData>
